--- a/cv6/excel.xlsx
+++ b/cv6/excel.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krajciko22\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janka\OneDrive\Počítač\SCHOOL\MIP\cvicenia\pokus\MIP\cv6\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616A43D6-1E74-463A-9D3C-BE6B368C036A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -67,11 +79,14 @@
   <si>
     <t>spolu</t>
   </si>
+  <si>
+    <t>Percentuálny podiel</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -82,15 +97,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1FAFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5E5FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -98,22 +125,308 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFEACC5"/>
+      <color rgb="FFE5E5FF"/>
+      <color rgb="FFE1FAFF"/>
+      <color rgb="FFFFEFF3"/>
+      <color rgb="FFCDF4FF"/>
+      <color rgb="FFFFE7ED"/>
+      <color rgb="FFCCCCFF"/>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -128,7 +441,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="sk-SK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -238,7 +551,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="FEACC5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1055,7 +1368,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1335,42 +1654,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>329.65</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="6">
         <f>C2/$C$12*$F$2</f>
         <v>29.008271735304465</v>
       </c>
@@ -1378,155 +1701,181 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>179.65</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <f t="shared" ref="D3:D11" si="0">C3/$C$12*$F$2</f>
         <v>15.808694121788102</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>129.85</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>11.426434354100667</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>116</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>10.207673354452657</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>89.7</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>7.893347412882787</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>82.85</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>7.2905667018655391</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>70.400000000000006</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>6.1950017599436817</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>50.05</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>4.4042590637099606</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>44.7</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>3.9334741288278776</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:6" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>43.55</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="11">
         <f t="shared" si="0"/>
         <v>3.8322773671242518</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:6" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="12"/>
+      <c r="B12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12">
+      <c r="C12" s="21">
         <f>SUM(C2:C11)</f>
         <v>1136.4000000000001</v>
       </c>
+      <c r="D12" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A12:B12"/>
-  </mergeCells>
+  <conditionalFormatting sqref="B2:D11">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFEACC5"/>
+        <color rgb="FFFFEFF3"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:D11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEFF3"/>
+        <color rgb="FFFEACC5"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
